--- a/medicine/Enfance/Jacques_Fromont/Jacques_Fromont.xlsx
+++ b/medicine/Enfance/Jacques_Fromont/Jacques_Fromont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Fromont est un illustrateur français de livres pour la jeunesse pour le compte des éditions Hachette[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Fromont est un illustrateur français de livres pour la jeunesse pour le compte des éditions Hachette.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1950, Jacques Fromont travaille dans des périodiques pour la jeunesse comme Mireille ou Hurrah. Il illustre plusieurs livres de Geneviève de Magellan.
-Dans les années 1960 et 1970, il illustre de nombreux romans aux éditions Hachette, principalement des romans d'Enid Blyton[2],[3] et de Paul-Jacques Bonzon[4],[5].
-Dans les années 1970, il illustre  chez Hachette plusieurs volumes de l'Encyclopédie de la jeunesse[6].
+Dans les années 1960 et 1970, il illustre de nombreux romans aux éditions Hachette, principalement des romans d'Enid Blyton, et de Paul-Jacques Bonzon,.
+Dans les années 1970, il illustre  chez Hachette plusieurs volumes de l'Encyclopédie de la jeunesse.
 </t>
         </is>
       </c>
@@ -546,12 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres de Geneviève de Magellan[7]
-1954 : Canicule à Paris
+          <t>Livres de Geneviève de Magellan[7]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1954 : Canicule à Paris
 1955 : Marseille
-1956 : Dix Minutes d'arrêt, pièce de théâtre (couverture seulement)[8]
+1956 : Dix Minutes d'arrêt, pièce de théâtre (couverture seulement)
 1956 : Arc-en-ciel, place Blanche
-1957 : Flashes[9].</t>
+1957 : Flashes.</t>
         </is>
       </c>
     </row>
@@ -581,8 +600,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Collection « Idéal-Bibliothèque », Hachette
-Série Mystère d'Enid Blyton
+          <t>Collection « Idéal-Bibliothèque », Hachette</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série Mystère d'Enid Blyton
 1962 : Le Mystère du voleur invisible (no 299)
 1963 : Le Mystère du pavillon rose (no 254)
 1963 : Le Mystère de la maison vide (no 274)
@@ -603,8 +627,43 @@
 1964 : Les Sept Compères au bord de l'eau de Jean-François Norcy (no 257)
 1964 : Le Manoir des cinq preux de Claude Voilier  (no 260)
 1965 : Sissi petite reine de Suzanne Pairault (no 284)
-Collection  « Bibliothèque rose », Hachette
-Série La Famille Tant-Mieux d'Enid Blyton
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collection  « Bibliothèque rose », Hachette</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série La Famille Tant-Mieux d'Enid Blyton
 1963 : La Famille Tant-Mieux (no 133)
 1964 : La Famille Tant-Mieux en péniche (no 159)
 1965 : La Famille Tant-Mieux en croisière (no 183)
@@ -637,16 +696,124 @@
 1967 : Les Six cousins d'Enid Blyton (no 341)
 1968 : Les Six cousins en famille d'Enid Blyton (no 334)
 1972 : Les Débrouillards de Timpelbach de Henry Winterfeld no 11)
-Collection « Bibliothèque verte », Hachette
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte », Hachette</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1964 : Anne et le bonheur de Lucy Maud Montgomery (no 245)
 1964 : Le Secret du baladin d'Elsie (no 253)
 1965 : Le Champion d'Olympie de René Guillot  (no 270)
 1965 : Le Mystère de la cigogne jaune de Marc Soriano (no 273)
 1975 : Les Vacances de Cécile (The Vine clad Hill) de Mabel Allan
-Collection « Spirale », éditions G. P.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collection « Spirale », éditions G. P.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 1974 : Les Jum's et le Cousin de Patagonie
 1975 : Les Jum's rencontrent Zorro
-Collection « Les Albums roses »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Collection « Les Albums roses »</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1965 : Le Chien qui creusait des trous d'Enid Blyton
 1965 : Le Gros Poisson d'Enid Blyton
 1965 : La Petite Charrette d'Enid Blyton
@@ -654,14 +821,85 @@
 1966 : Le Chat qui jouait à cache-cache d'Enid Blyton
 1967 : Le Collier de grand-mère d'Enid Blyton
 1967 : Nos amis les oiseaux d'Enid Blyton
-Encyclopédie de la jeunesse, Hachette
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encyclopédie de la jeunesse, Hachette</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1970 : Dis, raconte par Jacques Gabalda et René Beaulieu
 1973 : C'est arrivé ce jour-là de Jacques Gabalda et René Beaulieu ; rééd. 1976 : Genève, Edito-service ; Évreux, diffusion Guilde du disque
 1978 : Histoires et légendes de tous les temps de Jacques Gabalda et René Beaulieu
 1978 : Histoires, récits et légendes de Jacques Gabalda et René Beaulieu
-Autres éditeurs
-1959 : Les Aventures de Tom Sawyer de Mark Twain ; Édité par Messidor-La Farandole, collection : « 1000 épisodes »[10],[11].
-1973 : Une toute petite chose, d'Enid Blyton ; coll. : « Contes de Mamie », éd. Hachette[12]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Fromont</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1959 : Les Aventures de Tom Sawyer de Mark Twain ; Édité par Messidor-La Farandole, collection : « 1000 épisodes »,.
+1973 : Une toute petite chose, d'Enid Blyton ; coll. : « Contes de Mamie », éd. Hachette
 1973 : Les Trois Petits Marins d'Enid Blyton ; coll. : « Contes de Mamie », éd. Hachette</t>
         </is>
       </c>
